--- a/sinomik/pelanggaran_berat.xlsx
+++ b/sinomik/pelanggaran_berat.xlsx
@@ -27,40 +27,40 @@
     <t>point</t>
   </si>
   <si>
-    <t>Tidak berseragam sesuai dengan ketentuan.</t>
-  </si>
-  <si>
-    <t>Tidak memasukkan baju.</t>
-  </si>
-  <si>
-    <t>Melipat lengan baju, baju tidak dikancingkan.</t>
-  </si>
-  <si>
-    <t>Seragam yang dicoret-coret.</t>
-  </si>
-  <si>
-    <t>Berambut panjang atau tidak standar ( ukuran dan model ), terurai (peserta didik putri ).</t>
-  </si>
-  <si>
-    <t>Celana atau rok tidak standar.</t>
-  </si>
-  <si>
-    <t>Tidak memakai kaos kaki.</t>
-  </si>
-  <si>
-    <t>Memakai kaos kaki tidak sesuai ketentuan</t>
-  </si>
-  <si>
-    <t>Tidak memakai ikat pinggang.</t>
-  </si>
-  <si>
-    <t>Memakai ikat pinggang tidak sesuai dengan ketentuan ( hitam )</t>
-  </si>
-  <si>
-    <t>Seragam atribut tidak lengkap.</t>
-  </si>
-  <si>
-    <t>Tidak memakai sepatu hitam ( selain olah raga ).</t>
+    <t>Datang terlambat 5-10 menit</t>
+  </si>
+  <si>
+    <t>Tidak masuk sekolah karena terlambat ( 10 menit keatas )</t>
+  </si>
+  <si>
+    <t>Tidak mengikuti salah satu mata pelajaran tanpa ijin</t>
+  </si>
+  <si>
+    <t>Meninggalkan kelas tanpa ijin</t>
+  </si>
+  <si>
+    <t>Dikantin saat jam pelajaran</t>
+  </si>
+  <si>
+    <t>Tidak mengikuti dan melaksanakan piket 7K</t>
+  </si>
+  <si>
+    <t>Tidur di kelas saat pelajaran berlangsung</t>
+  </si>
+  <si>
+    <t>Pulang sebelum waktunya tanpa izin dari sekolah</t>
+  </si>
+  <si>
+    <t>Tidak masuk sekolah tanpa keterangan.</t>
+  </si>
+  <si>
+    <t>Tidak mengikuti upacara</t>
+  </si>
+  <si>
+    <t>Tidak mengikuti kegiatan sekolah</t>
+  </si>
+  <si>
+    <t>Tidak mengikuti kegiatan ekstrakurikuler tanpa ijin.</t>
   </si>
 </sst>
 </file>
@@ -237,14 +237,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -265,6 +259,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,135 +596,135 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <v>5</v>
+      <c r="C11" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
-        <v>5</v>
+      <c r="C12" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
-        <v>5</v>
+      <c r="C13" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
